--- a/UI/功能／接口设计.xlsx
+++ b/UI/功能／接口设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/OneDrive/GraduationAssesment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/ScrumManagement/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
   <si>
     <t>通用组件</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>/Teams/:TeamID/Users/:UserID</t>
+  </si>
+  <si>
+    <t>获取用户详细信息</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15:I106"/>
+  <dimension ref="A15:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="160" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2171,129 +2174,221 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+    <row r="110" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E110" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F110" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G110" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I110" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
+    <row r="111" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-    </row>
-    <row r="102" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D112" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-    </row>
-    <row r="103" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9" t="s">
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D113" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-    </row>
-    <row r="104" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9" t="s">
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D114" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-    </row>
-    <row r="105" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9" t="s">
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D115" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-    </row>
-    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D116" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/功能／接口设计.xlsx
+++ b/UI/功能／接口设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/ScrumManagement/UI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统组件规划" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>通用组件</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Backlog所属项目</t>
   </si>
   <si>
-    <t>Project接口约定</t>
-  </si>
-  <si>
-    <t>/project/:projectId</t>
-  </si>
-  <si>
     <t>用户故事</t>
   </si>
   <si>
@@ -208,23 +202,9 @@
     <t>Description(String)</t>
   </si>
   <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>项目描述</t>
-  </si>
-  <si>
-    <t>说明：
-1.接口中所有的ID均应为随机生成的GUID。
-2.</t>
-  </si>
-  <si>
     <t>Team接口约定</t>
   </si>
   <si>
-    <t>添加一个项目</t>
-  </si>
-  <si>
     <t>说明：一个团队只能负责一个项目</t>
   </si>
   <si>
@@ -276,57 +256,18 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>获取项目详细信息</t>
-  </si>
-  <si>
     <t>Success(Boolean)</t>
   </si>
   <si>
     <t>Message(String)</t>
   </si>
   <si>
-    <t>ErrorType(String Enum)</t>
-  </si>
-  <si>
     <t>是否成功</t>
   </si>
   <si>
-    <t>StatusCode(String Enum)</t>
-  </si>
-  <si>
-    <t>StartAt(DateTime)</t>
-  </si>
-  <si>
-    <t>项目开始时间</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>删除项目</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>项目ID</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>更改项目  将会返回更改后的项目详细信息</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>是否删除成功</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -336,12 +277,6 @@
     <t>删除团队</t>
   </si>
   <si>
-    <t>/project/:projectId/team</t>
-  </si>
-  <si>
-    <t>查看项目的负责团队（可能有多个）</t>
-  </si>
-  <si>
     <t>/ProductBacklog/:BacklogId</t>
   </si>
   <si>
@@ -406,13 +341,25 @@
   </si>
   <si>
     <t>获取用户详细信息</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>x-access-token</t>
+  </si>
+  <si>
+    <t>登录令牌，该令牌将会存储在客户端</t>
+  </si>
+  <si>
+    <t>HTTP头中的字段约定</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -447,8 +394,15 @@
       <color theme="1"/>
       <name val="Songti TC Regular"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,8 +424,13 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -503,52 +462,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -570,19 +493,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,10 +956,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15:I116"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="160" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,122 +975,273 @@
     <col min="9" max="9" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -1179,13 +1249,13 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1200,14 +1270,12 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
@@ -1217,14 +1285,12 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
     </row>
@@ -1232,90 +1298,66 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1325,172 +1367,237 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="F33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="B37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1502,14 +1609,14 @@
     <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="C46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -1517,14 +1624,14 @@
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="C47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
@@ -1532,27 +1639,27 @@
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="D48" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -1567,10 +1674,10 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -1582,48 +1689,46 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+    <row r="52" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
@@ -1631,113 +1736,174 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C56" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>109</v>
+        <v>89</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="9"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1754,7 +1920,7 @@
         <v>41</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>42</v>
@@ -1771,14 +1937,12 @@
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
@@ -1790,17 +1954,13 @@
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>73</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -1809,36 +1969,28 @@
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>75</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
-    <row r="72" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>76</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -1847,17 +1999,13 @@
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>78</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -1866,529 +2014,16 @@
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>79</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-    </row>
-    <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-    </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-    </row>
-    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-    </row>
-    <row r="91" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-    </row>
-    <row r="94" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-    </row>
-    <row r="97" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-    </row>
-    <row r="99" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-    </row>
-    <row r="100" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-    </row>
-    <row r="101" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-    </row>
-    <row r="112" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-    </row>
-    <row r="113" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-    </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-    </row>
-    <row r="115" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
-    </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/功能／接口设计.xlsx
+++ b/UI/功能／接口设计.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/UI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/ScrumManagement/UI/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="33600" windowHeight="19480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统组件规划" sheetId="1" r:id="rId1"/>
     <sheet name="数据字典" sheetId="2" r:id="rId2"/>
     <sheet name="接口约定" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
   <si>
     <t>通用组件</t>
   </si>
@@ -353,6 +354,66 @@
   </si>
   <si>
     <t>HTTP头中的字段约定</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <t>登录界面：</t>
+  </si>
+  <si>
+    <t>1.输入用户名／密码</t>
+  </si>
+  <si>
+    <t>2.点击“登录”</t>
+  </si>
+  <si>
+    <t>3.要根据具体的角色来显示对应的菜单</t>
+  </si>
+  <si>
+    <t>技术细节</t>
+  </si>
+  <si>
+    <t>可以使用ng-display</t>
+  </si>
+  <si>
+    <t>用户注册界面</t>
+  </si>
+  <si>
+    <t>1.用户进入登录界面</t>
+  </si>
+  <si>
+    <t>2.用户点击 注册按钮 显示注册界面</t>
+  </si>
+  <si>
+    <t>3.用户输入用户名、姓名、邮箱、密码、确认密码并 选择角色之后方可进行注册</t>
+  </si>
+  <si>
+    <t>4.注册完成之后自动登录，此时新的用户只能看到自己的菜单，并且看不到任何项目。</t>
+  </si>
+  <si>
+    <t>管理员界面需要的功能</t>
+  </si>
+  <si>
+    <t>1.将用户添加到Team中。</t>
+  </si>
+  <si>
+    <t>2.Team增删改查</t>
+  </si>
+  <si>
+    <t>3.Project增删改查</t>
+  </si>
+  <si>
+    <t>4.将Team添加到Project中</t>
+  </si>
+  <si>
+    <t>UserName(String)</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>用户名 唯一</t>
   </si>
 </sst>
 </file>
@@ -471,7 +532,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -497,6 +558,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -959,7 +1023,7 @@
   <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1018,112 +1082,131 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="8" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1133,16 +1216,16 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -2029,4 +2112,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="215" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UI/功能／接口设计.xlsx
+++ b/UI/功能／接口设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
   <si>
     <t>通用组件</t>
   </si>
@@ -410,10 +410,25 @@
     <t>UserName(String)</t>
   </si>
   <si>
+    <t>用户名</t>
+  </si>
+  <si>
     <t>邮箱</t>
   </si>
   <si>
     <t>用户名 唯一</t>
+  </si>
+  <si>
+    <t>/Users/:UserName</t>
+  </si>
+  <si>
+    <t>邮箱。</t>
+  </si>
+  <si>
+    <t>/Users/:UserName/Avatar</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1136,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -1162,7 +1177,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>68</v>
@@ -1219,7 +1234,7 @@
         <v>126</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>75</v>
@@ -1332,7 +1347,7 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>91</v>
@@ -1545,7 +1560,7 @@
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>80</v>
@@ -1584,7 +1599,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -1626,92 +1641,92 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="45" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -1723,10 +1738,10 @@
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -1734,37 +1749,37 @@
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
@@ -1772,10 +1787,10 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
@@ -1787,46 +1802,46 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
@@ -1834,48 +1849,48 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
@@ -1883,43 +1898,43 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F60" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="10"/>
       <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -1928,46 +1943,46 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="9"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
@@ -1975,87 +1990,87 @@
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="10"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+    <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F69" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G69" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I69" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
+    <row r="70" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -2067,10 +2082,10 @@
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -2082,10 +2097,10 @@
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -2097,16 +2112,31 @@
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/功能／接口设计.xlsx
+++ b/UI/功能／接口设计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>通用组件</t>
   </si>
@@ -320,18 +320,9 @@
     <t>删除团队中的成员</t>
   </si>
   <si>
-    <t>/Users/:UserId</t>
-  </si>
-  <si>
-    <t>/Users/:UserId/Avatar</t>
-  </si>
-  <si>
     <t>(Array)</t>
   </si>
   <si>
-    <t>/Users/:UserId/Teams</t>
-  </si>
-  <si>
     <t>/Teams/:TeamId</t>
   </si>
   <si>
@@ -429,6 +420,9 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>/Users/:UserName/Teams</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1052,7 @@
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1071,7 +1065,7 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>15</v>
@@ -1086,10 +1080,10 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1136,7 +1130,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -1177,7 +1171,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>68</v>
@@ -1231,10 +1225,10 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>75</v>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>84</v>
@@ -1347,7 +1341,7 @@
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>91</v>
@@ -1416,7 +1410,7 @@
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>91</v>
@@ -1485,7 +1479,7 @@
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>80</v>
@@ -1495,7 +1489,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -1560,13 +1554,13 @@
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -1599,7 +1593,7 @@
         <v>68</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -1641,10 +1635,10 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -1704,7 +1698,7 @@
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>37</v>
@@ -1766,7 +1760,7 @@
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>80</v>
@@ -1828,7 +1822,7 @@
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>79</v>
@@ -1875,7 +1869,7 @@
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>80</v>
@@ -1969,7 +1963,7 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>84</v>
@@ -2160,83 +2154,83 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
